--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-554875.4123386986</v>
+        <v>-557387.8207200635</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>377.216940304131</v>
+        <v>303.3306883678035</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.87048707860555</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.2916910756186098</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>251.906264415723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>116.7942439067361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>89.60487759803439</v>
       </c>
       <c r="H5" t="n">
-        <v>69.93845660440861</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>121.2877059169215</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>40.61077471343791</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>208.568990010583</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.29212650174304</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>100.1148780361132</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>181.1133916141006</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>210.7001060820189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016493</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>206.4851923430286</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.8253826161900019</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>60.46574022124238</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346627</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.10998325717174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833815</v>
+        <v>28.23631843387907</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>45.36631724422193</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>11.56087338713407</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261743</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559525</v>
+        <v>1938.906022842682</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619113</v>
+        <v>1569.94350590227</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1198280123626</v>
+        <v>1211.67780729552</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1198280123626</v>
+        <v>825.8895546972753</v>
       </c>
       <c r="F2" t="n">
-        <v>787.1198280123626</v>
+        <v>414.9036499076678</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,16 +4413,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>752.4676575237381</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>752.4676575237381</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>602.3510181114024</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>454.4379245290093</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>307.5479770310989</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>307.5479770310989</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>161.3307902489567</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1926.999910638373</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1926.999910638373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1926.999910638373</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.91045183457</v>
+        <v>1672.315422432486</v>
       </c>
       <c r="W4" t="n">
-        <v>1175.936468090393</v>
+        <v>1382.898252395525</v>
       </c>
       <c r="X4" t="n">
-        <v>1175.936468090393</v>
+        <v>1154.908701497508</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>934.1161223539779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1672.191441142816</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.228924202404</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D5" t="n">
-        <v>944.9632255956535</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1749729974092</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="F5" t="n">
-        <v>148.1890682078017</v>
+        <v>157.0220938039353</v>
       </c>
       <c r="G5" t="n">
-        <v>137.1570220932022</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
         <v>66.5121164321834</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,13 +4577,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118627</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142816</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.9890585374015</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C7" t="n">
-        <v>498.9890585374015</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D7" t="n">
-        <v>498.9890585374015</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>351.0759649550084</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>351.0759649550084</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.6375233676413</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.883770458459</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.483610522581</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2531.483610522581</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,16 +4884,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>697.2814163499067</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.65206724243</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.65206724243</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1289.967579036543</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.550408999582</v>
+        <v>697.2814163499067</v>
       </c>
       <c r="X10" t="n">
-        <v>772.5608581015648</v>
+        <v>697.2814163499067</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>697.2814163499067</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900021</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776664</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="E19" t="n">
-        <v>443.4949469776664</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>296.604999479756</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -5990,49 +5990,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>198.027470314254</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6953,34 +6953,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311364</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032295</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
         <v>402.7245934908938</v>
@@ -7087,58 +7087,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613761</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319339</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656833</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>33.70478534932244</v>
+        <v>107.5910372856499</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.481933331232536</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>169.7287544298549</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.00954930701826</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>80.03780599356244</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303792</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>105.0583980710265</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101226</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.1584408891653</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.26526345294994</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393069</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>37.12601365260461</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>206.7713260796061</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>205.8445769401542</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-1.494138159309111e-12</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
@@ -26323,16 +26323,16 @@
         <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
         <v>262322.644899252</v>
@@ -26344,10 +26344,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551216</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25226.35430582087</v>
+        <v>25226.3543058208</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26436,25 +26436,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
+        <v>12386.92018181816</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181818</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="N4" t="n">
         <v>20377.77944491158</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491163</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1232845.396818908</v>
+        <v>-1233136.003983754</v>
       </c>
       <c r="C6" t="n">
-        <v>67330.67969132948</v>
+        <v>67330.67969132937</v>
       </c>
       <c r="D6" t="n">
-        <v>67330.67969132939</v>
+        <v>67330.67969132945</v>
       </c>
       <c r="E6" t="n">
-        <v>-176599.2669138284</v>
+        <v>-176634.0048392641</v>
       </c>
       <c r="F6" t="n">
-        <v>148813.1948935268</v>
+        <v>148778.456968091</v>
       </c>
       <c r="G6" t="n">
-        <v>148813.1948935265</v>
+        <v>148778.4569680909</v>
       </c>
       <c r="H6" t="n">
-        <v>148813.1948935267</v>
+        <v>148778.456968091</v>
       </c>
       <c r="I6" t="n">
-        <v>148813.1948935267</v>
+        <v>148778.456968091</v>
       </c>
       <c r="J6" t="n">
-        <v>-68718.00750375044</v>
+        <v>-68752.74542918647</v>
       </c>
       <c r="K6" t="n">
-        <v>148813.1948935267</v>
+        <v>148778.4569680911</v>
       </c>
       <c r="L6" t="n">
-        <v>148813.1948935268</v>
+        <v>148778.456968091</v>
       </c>
       <c r="M6" t="n">
-        <v>63758.166958015</v>
+        <v>63723.42903257883</v>
       </c>
       <c r="N6" t="n">
-        <v>123868.9619134338</v>
+        <v>123868.9619134336</v>
       </c>
       <c r="O6" t="n">
-        <v>143296.6799070652</v>
+        <v>143296.6799070656</v>
       </c>
       <c r="P6" t="n">
         <v>143296.6799070653</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>189.4773342558233</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2313789081050004</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>321.3168480554191</v>
       </c>
       <c r="H5" t="n">
-        <v>224.6693077829119</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>45.95911518170631</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>125.4150335455903</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>156.7039017604246</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.4601319683919</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.434071240056</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>105.4096067224904</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998974</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980853</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
